--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -7,17 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Thí sinh" r:id="rId3" sheetId="1"/>
+    <sheet name="Khối A" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
   <si>
     <t/>
   </si>
   <si>
-    <t>Tổng số: 3</t>
+    <t>Tổng số: 5</t>
   </si>
   <si>
     <t>STT</t>
@@ -53,34 +54,55 @@
     <t>Khối A</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>Con của người hoạt động kháng chiến bị dị dạng, dị tật do hậu quả của chất độc hóa học (2 điểm)</t>
+    <t>39129</t>
+  </si>
+  <si>
+    <t>Nhật Minh</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Người khuyết tật (1 điểm)</t>
+  </si>
+  <si>
+    <t>Khối B</t>
+  </si>
+  <si>
+    <t>93202</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Người dân tộc thiểu số (2 điểm)</t>
+  </si>
+  <si>
+    <t>201901</t>
+  </si>
+  <si>
+    <t>Manh</t>
+  </si>
+  <si>
+    <t>Thương bệnh binh (2 điểm)</t>
+  </si>
+  <si>
+    <t>894482</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sài Gòn </t>
+  </si>
+  <si>
+    <t>Khu vực nông thôn (0.5 điểm)</t>
   </si>
   <si>
     <t>Khối C</t>
   </si>
   <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>Manh</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Thương bệnh binh (2 điểm)</t>
-  </si>
-  <si>
-    <t>Khối B</t>
+    <t>Tổng số: 2</t>
   </si>
 </sst>
 </file>
@@ -125,7 +147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -207,13 +229,131 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C8" t="s">
         <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -7,18 +7,19 @@
   </bookViews>
   <sheets>
     <sheet name="Thí sinh" r:id="rId3" sheetId="1"/>
-    <sheet name="Khối A" r:id="rId4" sheetId="2"/>
+    <sheet name="Khối B" r:id="rId4" sheetId="2"/>
+    <sheet name="Khối A" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
   <si>
     <t/>
   </si>
   <si>
-    <t>Tổng số: 5</t>
+    <t>Tổng số: 6</t>
   </si>
   <si>
     <t>STT</t>
@@ -54,6 +55,21 @@
     <t>Khối A</t>
   </si>
   <si>
+    <t>4324</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Thái lan</t>
+  </si>
+  <si>
+    <t>Người dân tộc thiểu số (2 điểm)</t>
+  </si>
+  <si>
+    <t>Khối B</t>
+  </si>
+  <si>
     <t>39129</t>
   </si>
   <si>
@@ -66,18 +82,12 @@
     <t>Người khuyết tật (1 điểm)</t>
   </si>
   <si>
-    <t>Khối B</t>
-  </si>
-  <si>
     <t>93202</t>
   </si>
   <si>
     <t>Tùng</t>
   </si>
   <si>
-    <t>Người dân tộc thiểu số (2 điểm)</t>
-  </si>
-  <si>
     <t>201901</t>
   </si>
   <si>
@@ -102,7 +112,19 @@
     <t>Khối C</t>
   </si>
   <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>Tổng số: 3</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
     <t>Tổng số: 2</t>
+  </si>
+  <si>
+    <t>33.333336%</t>
   </si>
 </sst>
 </file>
@@ -147,7 +169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G9"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -229,13 +251,13 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -243,19 +265,19 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -269,13 +291,38 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s">
+      <c r="C10" t="s">
         <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -285,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G6"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -293,7 +340,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -321,19 +368,19 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -347,13 +394,121 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t/>
   </si>
   <si>
-    <t>Tổng số: 3</t>
+    <t>Tổng số: 1</t>
   </si>
   <si>
     <t>STT</t>
@@ -51,36 +51,6 @@
   </si>
   <si>
     <t>Khối A</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
-    <t>abcdef</t>
-  </si>
-  <si>
-    <t>Con của người hoạt động kháng chiến bị dị dạng, dị tật do hậu quả của chất độc hóa học (2 điểm)</t>
-  </si>
-  <si>
-    <t>Khối C</t>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>Manh</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Thương bệnh binh (2 điểm)</t>
-  </si>
-  <si>
-    <t>Khối B</t>
   </si>
 </sst>
 </file>
@@ -125,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,46 +146,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Thí sinh" r:id="rId3" sheetId="1"/>
-    <sheet name="Khối B" r:id="rId4" sheetId="2"/>
-    <sheet name="Khối A" r:id="rId5" sheetId="3"/>
+    <sheet name="Khối A" r:id="rId4" sheetId="2"/>
+    <sheet name="Khối B" r:id="rId5" sheetId="3"/>
+    <sheet name="Khối C" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
   <si>
     <t/>
   </si>
@@ -115,16 +116,22 @@
     <t>100.0%</t>
   </si>
   <si>
+    <t>Tổng số: 2</t>
+  </si>
+  <si>
+    <t>33.333336%</t>
+  </si>
+  <si>
     <t>Tổng số: 3</t>
   </si>
   <si>
     <t>50.0%</t>
   </si>
   <si>
-    <t>Tổng số: 2</t>
-  </si>
-  <si>
-    <t>33.333336%</t>
+    <t>Tổng số: 1</t>
+  </si>
+  <si>
+    <t>16.666668%</t>
   </si>
 </sst>
 </file>
@@ -332,6 +339,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -340,7 +430,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -425,7 +515,7 @@
     </row>
     <row r="9">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -433,9 +523,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +533,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -471,44 +561,24 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="39">
   <si>
     <t/>
   </si>
@@ -71,24 +71,24 @@
     <t>Khối B</t>
   </si>
   <si>
-    <t>39129</t>
-  </si>
-  <si>
-    <t>Nhật Minh</t>
+    <t>8484</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Hà Giang</t>
+  </si>
+  <si>
+    <t>93202</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
   <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>Người khuyết tật (1 điểm)</t>
-  </si>
-  <si>
-    <t>93202</t>
-  </si>
-  <si>
-    <t>Tùng</t>
-  </si>
-  <si>
     <t>201901</t>
   </si>
   <si>
@@ -116,22 +116,22 @@
     <t>100.0%</t>
   </si>
   <si>
+    <t>Tổng số: 3</t>
+  </si>
+  <si>
+    <t>50.0%</t>
+  </si>
+  <si>
+    <t>Tổng số: 1</t>
+  </si>
+  <si>
+    <t>16.666668%</t>
+  </si>
+  <si>
     <t>Tổng số: 2</t>
   </si>
   <si>
     <t>33.333336%</t>
-  </si>
-  <si>
-    <t>Tổng số: 3</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>Tổng số: 1</t>
-  </si>
-  <si>
-    <t>16.666668%</t>
   </si>
 </sst>
 </file>
@@ -261,10 +261,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -272,13 +272,13 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -298,7 +298,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -338,6 +338,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A3:G8"/>
   <sheetViews>
@@ -347,7 +450,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -375,19 +478,19 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -395,127 +498,24 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="F8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="3">
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
     </row>
     <row r="7">
       <c r="F7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
   <si>
     <t/>
   </si>
@@ -71,13 +71,16 @@
     <t>Khối B</t>
   </si>
   <si>
-    <t>8484</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
-    <t>Hà Giang</t>
+    <t>34294</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Khối C</t>
   </si>
   <si>
     <t>93202</t>
@@ -86,15 +89,18 @@
     <t>Tùng</t>
   </si>
   <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>201901</t>
+  </si>
+  <si>
+    <t>Manh</t>
+  </si>
+  <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>Manh</t>
-  </si>
-  <si>
     <t>Thương bệnh binh (2 điểm)</t>
   </si>
   <si>
@@ -110,22 +116,7 @@
     <t>Khu vực nông thôn (0.5 điểm)</t>
   </si>
   <si>
-    <t>Khối C</t>
-  </si>
-  <si>
     <t>100.0%</t>
-  </si>
-  <si>
-    <t>Tổng số: 3</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>Tổng số: 1</t>
-  </si>
-  <si>
-    <t>16.666668%</t>
   </si>
   <si>
     <t>Tổng số: 2</t>
@@ -261,10 +252,10 @@
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -272,13 +263,13 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -292,16 +283,16 @@
         <v>5.0</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -312,24 +303,24 @@
         <v>6.0</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -339,7 +330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G9"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -347,7 +338,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -395,44 +386,24 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +421,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -498,16 +469,16 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -515,7 +486,7 @@
     </row>
     <row r="8">
       <c r="F8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +496,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -533,7 +504,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -561,24 +532,44 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="s">
-        <v>36</v>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
   <si>
     <t/>
   </si>
   <si>
-    <t>Tổng số: 6</t>
+    <t>Tổng số: 4</t>
   </si>
   <si>
     <t>STT</t>
@@ -41,6 +41,21 @@
     <t>Khối thi</t>
   </si>
   <si>
+    <t>1221</t>
+  </si>
+  <si>
+    <t>Manh</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Người dân tộc thiểu số (2 điểm)</t>
+  </si>
+  <si>
+    <t>Khối A</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
@@ -53,76 +68,43 @@
     <t>Khu vực thị xã, thành phố trực thuộc tỉnh, các thị xã, huyện ngoại thành của thành phố trực thuộc Trung ương (0.25 điểm)</t>
   </si>
   <si>
-    <t>Khối A</t>
-  </si>
-  <si>
-    <t>4324</t>
-  </si>
-  <si>
-    <t>Thái</t>
-  </si>
-  <si>
-    <t>Thái lan</t>
-  </si>
-  <si>
-    <t>Người dân tộc thiểu số (2 điểm)</t>
-  </si>
-  <si>
-    <t>Khối B</t>
-  </si>
-  <si>
-    <t>34294</t>
-  </si>
-  <si>
-    <t>Quân</t>
-  </si>
-  <si>
-    <t>Cao Bằng</t>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
   </si>
   <si>
     <t>Khối C</t>
   </si>
   <si>
-    <t>93202</t>
-  </si>
-  <si>
-    <t>Tùng</t>
-  </si>
-  <si>
-    <t>Thái Bình</t>
-  </si>
-  <si>
-    <t>201901</t>
-  </si>
-  <si>
-    <t>Manh</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>Thương bệnh binh (2 điểm)</t>
-  </si>
-  <si>
-    <t>894482</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sài Gòn </t>
-  </si>
-  <si>
-    <t>Khu vực nông thôn (0.5 điểm)</t>
+    <t>4444</t>
+  </si>
+  <si>
+    <t>An Giang</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>Tổng số: 2</t>
-  </si>
-  <si>
-    <t>33.333336%</t>
+    <t>Tổng số: 3</t>
+  </si>
+  <si>
+    <t>75.0%</t>
+  </si>
+  <si>
+    <t>Tổng số: 0</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>Tổng số: 1</t>
+  </si>
+  <si>
+    <t>25.0%</t>
   </si>
 </sst>
 </file>
@@ -167,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G12"/>
+  <dimension ref="A3:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -235,7 +217,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -243,19 +225,19 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -263,64 +245,24 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -330,7 +272,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -338,7 +280,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -386,13 +328,13 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -401,9 +343,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>35</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -413,7 +375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +383,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -444,49 +406,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -496,7 +418,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G8"/>
+  <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +426,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -532,44 +454,24 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/thisinh.xlsx
+++ b/thisinh.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="36">
   <si>
     <t/>
   </si>
   <si>
-    <t>Tổng số: 4</t>
+    <t>Tổng số: 6</t>
   </si>
   <si>
     <t>STT</t>
@@ -41,70 +41,88 @@
     <t>Khối thi</t>
   </si>
   <si>
-    <t>1221</t>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>Long Phạm</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>Khu vực thị xã, thành phố trực thuộc tỉnh, các thị xã, huyện ngoại thành của thành phố trực thuộc Trung ương (0.25 điểm)</t>
+  </si>
+  <si>
+    <t>Khối A</t>
+  </si>
+  <si>
+    <t>4324</t>
+  </si>
+  <si>
+    <t>Thái</t>
+  </si>
+  <si>
+    <t>Thái lan</t>
+  </si>
+  <si>
+    <t>Người dân tộc thiểu số (2 điểm)</t>
+  </si>
+  <si>
+    <t>Khối B</t>
+  </si>
+  <si>
+    <t>34294</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>Cao Bằng</t>
+  </si>
+  <si>
+    <t>Khối C</t>
+  </si>
+  <si>
+    <t>93202</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>201901</t>
   </si>
   <si>
     <t>Manh</t>
   </si>
   <si>
-    <t>Ninh Bình</t>
-  </si>
-  <si>
-    <t>Người dân tộc thiểu số (2 điểm)</t>
-  </si>
-  <si>
-    <t>Khối A</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>Long Phạm</t>
-  </si>
-  <si>
-    <t>Nam Định</t>
-  </si>
-  <si>
-    <t>Khu vực thị xã, thành phố trực thuộc tỉnh, các thị xã, huyện ngoại thành của thành phố trực thuộc Trung ương (0.25 điểm)</t>
-  </si>
-  <si>
-    <t>3412</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>Khối C</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>An Giang</t>
+    <t>Thương bệnh binh (2 điểm)</t>
+  </si>
+  <si>
+    <t>894482</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sài Gòn </t>
+  </si>
+  <si>
+    <t>Khu vực nông thôn (0.5 điểm)</t>
   </si>
   <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>Tổng số: 3</t>
-  </si>
-  <si>
-    <t>75.0%</t>
-  </si>
-  <si>
-    <t>Tổng số: 0</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>Tổng số: 1</t>
-  </si>
-  <si>
-    <t>25.0%</t>
+    <t>Tổng số: 2</t>
+  </si>
+  <si>
+    <t>33.333336%</t>
   </si>
 </sst>
 </file>
@@ -149,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G10"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -217,7 +235,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -225,19 +243,19 @@
         <v>3.0</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -245,24 +263,64 @@
         <v>4.0</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="10">
+      <c r="A10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="F12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -272,7 +330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G9"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -280,7 +338,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -328,13 +386,13 @@
         <v>2.0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -343,29 +401,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="F9" t="s">
-        <v>25</v>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -375,7 +413,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G6"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -383,7 +421,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -406,9 +444,49 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +496,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +504,7 @@
   <sheetData>
     <row r="3">
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -454,24 +532,44 @@
         <v>1.0</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
         <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
